--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3771603.97794935</v>
+        <v>3771085.684666582</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2098510.838922389</v>
+        <v>2098510.838922388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839054.170799305</v>
+        <v>839054.170799306</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>148.8685219677128</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>52.88818446518565</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.5086886357425</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.4051622868139</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.9937807002341</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>21.90776693603388</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -949,22 +949,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>136.6164026400411</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>150.780476428415</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>143.4731073802228</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>64.05220015818084</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.3480424597904</v>
+        <v>113.1667354347864</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.7565061301959</v>
+        <v>30.26587136802734</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1390,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497638</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049596</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1675,7 +1675,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>110.3394996666053</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049596</v>
@@ -1846,25 +1846,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059108</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665118</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2563,7 +2563,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>87.53338070137062</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497681</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>123.077718202774</v>
       </c>
       <c r="D29" t="n">
-        <v>174.6188563113565</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697389</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3277,16 +3277,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3565,10 +3565,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.7524085717471</v>
+        <v>323.7524085717472</v>
       </c>
       <c r="C41" t="n">
         <v>316.5063567995629</v>
       </c>
       <c r="D41" t="n">
-        <v>308.8493278129631</v>
+        <v>308.8493278129632</v>
       </c>
       <c r="E41" t="n">
-        <v>325.8202999520851</v>
+        <v>68.85394978895296</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>339.9881044027862</v>
       </c>
       <c r="G41" t="n">
-        <v>336.293738274341</v>
+        <v>336.2937382743411</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>248.1048302466385</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>64.21635605592408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.1110298258242</v>
       </c>
       <c r="T41" t="n">
-        <v>28.60983276908619</v>
+        <v>148.5282067336418</v>
       </c>
       <c r="U41" t="n">
-        <v>180.4578125872115</v>
+        <v>180.4578125872116</v>
       </c>
       <c r="V41" t="n">
-        <v>265.948351520981</v>
+        <v>265.9483515209811</v>
       </c>
       <c r="W41" t="n">
-        <v>294.5516549988596</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>312.8206893337379</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.7884123060691</v>
+        <v>319.7884123060692</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.6185488218524</v>
+        <v>110.6185488218525</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>95.76567707213493</v>
       </c>
       <c r="D43" t="n">
-        <v>26.29871206681157</v>
+        <v>81.33939228397466</v>
       </c>
       <c r="E43" t="n">
-        <v>81.26583433685367</v>
+        <v>81.26583433685377</v>
       </c>
       <c r="F43" t="n">
-        <v>83.01528575662094</v>
+        <v>83.01528575662104</v>
       </c>
       <c r="G43" t="n">
-        <v>93.83412367901308</v>
+        <v>93.83412367901317</v>
       </c>
       <c r="H43" t="n">
-        <v>81.18637584558512</v>
+        <v>81.18637584558522</v>
       </c>
       <c r="I43" t="n">
-        <v>59.02609142675705</v>
+        <v>59.02609142675715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.92458979121297</v>
+        <v>49.92458979121307</v>
       </c>
       <c r="S43" t="n">
-        <v>128.0505332967403</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.6244716309124</v>
+        <v>120.6911013176031</v>
       </c>
       <c r="U43" t="n">
-        <v>209.8470141579822</v>
+        <v>209.8470141579823</v>
       </c>
       <c r="V43" t="n">
-        <v>190.5821620448482</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>207.7597083655984</v>
       </c>
       <c r="X43" t="n">
-        <v>159.0021293123109</v>
+        <v>159.002129312311</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>323.7524085717471</v>
+        <v>323.7524085717472</v>
       </c>
       <c r="C44" t="n">
         <v>316.5063567995629</v>
       </c>
       <c r="D44" t="n">
-        <v>308.8493278129631</v>
+        <v>308.8493278129632</v>
       </c>
       <c r="E44" t="n">
-        <v>325.8202999520851</v>
+        <v>325.8202999520852</v>
       </c>
       <c r="F44" t="n">
         <v>339.9881044027862</v>
       </c>
       <c r="G44" t="n">
-        <v>336.293738274341</v>
+        <v>336.2937382743411</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>248.1048302466385</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>54.85696542458902</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>180.4578125872116</v>
       </c>
       <c r="V44" t="n">
-        <v>135.0278924744916</v>
+        <v>265.9483515209811</v>
       </c>
       <c r="W44" t="n">
-        <v>294.5516549988596</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>312.8206893337379</v>
+        <v>312.820689333738</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.7884123060691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.6185488218524</v>
+        <v>110.6185488218525</v>
       </c>
       <c r="C46" t="n">
-        <v>95.76567707213485</v>
+        <v>95.76567707213493</v>
       </c>
       <c r="D46" t="n">
-        <v>81.33939228397458</v>
+        <v>81.33939228397466</v>
       </c>
       <c r="E46" t="n">
-        <v>81.26583433685369</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.01528575662095</v>
+        <v>83.01528575662104</v>
       </c>
       <c r="G46" t="n">
-        <v>93.83412367901309</v>
+        <v>93.83412367901317</v>
       </c>
       <c r="H46" t="n">
-        <v>81.18637584558513</v>
+        <v>81.18637584558522</v>
       </c>
       <c r="I46" t="n">
-        <v>59.02609142675706</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.92458979121298</v>
+        <v>49.92458979121307</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>128.0505332967404</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.6244716309125</v>
       </c>
       <c r="U46" t="n">
-        <v>209.8470141579822</v>
+        <v>51.18903174330616</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>190.5821620448483</v>
       </c>
       <c r="W46" t="n">
-        <v>180.307258794215</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.0021293123109</v>
+        <v>159.002129312311</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.1435508889872</v>
+        <v>148.1435508889873</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.663050286385</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.663050286385</v>
+        <v>1374.613464718228</v>
       </c>
       <c r="D2" t="n">
-        <v>1418.290805874553</v>
+        <v>989.1723359348957</v>
       </c>
       <c r="E2" t="n">
-        <v>1015.707280991098</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F2" t="n">
-        <v>598.8128425210757</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4330,25 +4330,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
-        <v>550.9450990378335</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4363,19 +4363,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y2" t="n">
-        <v>1969.157795997781</v>
+        <v>1767.788966215297</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N3" t="n">
-        <v>2021.614212075288</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>2021.614212075288</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="C4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="D4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="E4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="F4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="G4" t="n">
-        <v>1627.674178072448</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072448</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J4" t="n">
         <v>1464.201482535628</v>
@@ -4512,28 +4512,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S4" t="n">
-        <v>2038.931431892307</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T4" t="n">
-        <v>1861.754500289464</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U4" t="n">
-        <v>1861.754500289464</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V4" t="n">
-        <v>1861.754500289464</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W4" t="n">
-        <v>1861.754500289464</v>
+        <v>2082.318103008358</v>
       </c>
       <c r="X4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="Y4" t="n">
-        <v>1627.674178072448</v>
+        <v>1848.237780791341</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2161.142036303753</v>
+        <v>553.8385808549444</v>
       </c>
       <c r="C5" t="n">
-        <v>2127.814985091395</v>
+        <v>553.8385808549444</v>
       </c>
       <c r="D5" t="n">
-        <v>1742.373856308063</v>
+        <v>553.8385808549444</v>
       </c>
       <c r="E5" t="n">
-        <v>1339.790331424607</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G5" t="n">
         <v>509.7331374425881</v>
@@ -4573,13 +4573,13 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M5" t="n">
-        <v>899.6156178475343</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N5" t="n">
-        <v>1427.426901484996</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O5" t="n">
         <v>1832.61545280471</v>
@@ -4597,22 +4597,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>2161.142036303753</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W5" t="n">
-        <v>2161.142036303753</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.142036303753</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="Y5" t="n">
-        <v>2161.142036303753</v>
+        <v>553.8385808549444</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>2218.395348604042</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P6" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.4771359200668</v>
+        <v>539.420211517574</v>
       </c>
       <c r="C7" t="n">
-        <v>360.2720179860559</v>
+        <v>539.420211517574</v>
       </c>
       <c r="D7" t="n">
-        <v>204.6389048885707</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="E7" t="n">
-        <v>204.6389048885707</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>796.4564810992425</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>530.4771359200668</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W7" t="n">
-        <v>530.4771359200668</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X7" t="n">
-        <v>530.4771359200668</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.4771359200668</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2128.455232864183</v>
+        <v>69.92960377554265</v>
       </c>
       <c r="C8" t="n">
-        <v>2128.455232864183</v>
+        <v>69.92960377554265</v>
       </c>
       <c r="D8" t="n">
-        <v>1743.014104080851</v>
+        <v>69.92960377554265</v>
       </c>
       <c r="E8" t="n">
-        <v>1340.430579197395</v>
+        <v>69.92960377554265</v>
       </c>
       <c r="F8" t="n">
-        <v>923.5361407273731</v>
+        <v>57.07556934592447</v>
       </c>
       <c r="G8" t="n">
-        <v>510.3733852153762</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="H8" t="n">
-        <v>186.2903347818668</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="I8" t="n">
-        <v>47.95321787433162</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="J8" t="n">
-        <v>192.6029907831597</v>
+        <v>192.6029907831598</v>
       </c>
       <c r="K8" t="n">
-        <v>192.6029907831597</v>
+        <v>551.5853468106217</v>
       </c>
       <c r="L8" t="n">
-        <v>535.6216170106878</v>
+        <v>1044.905638529151</v>
       </c>
       <c r="M8" t="n">
-        <v>1081.622517055268</v>
+        <v>1044.905638529151</v>
       </c>
       <c r="N8" t="n">
-        <v>1609.433800692731</v>
+        <v>1572.716922166613</v>
       </c>
       <c r="O8" t="n">
-        <v>2049.473401585059</v>
+        <v>2012.756523058941</v>
       </c>
       <c r="P8" t="n">
-        <v>2397.660893716581</v>
+        <v>2212.815333575636</v>
       </c>
       <c r="Q8" t="n">
-        <v>2397.660893716581</v>
+        <v>2397.660893716585</v>
       </c>
       <c r="R8" t="n">
-        <v>2359.667980002103</v>
+        <v>2359.667980002107</v>
       </c>
       <c r="S8" t="n">
-        <v>2193.154424943154</v>
+        <v>2193.154424943157</v>
       </c>
       <c r="T8" t="n">
-        <v>2193.154424943154</v>
+        <v>1969.653822502574</v>
       </c>
       <c r="U8" t="n">
-        <v>2128.455232864183</v>
+        <v>1713.901092937173</v>
       </c>
       <c r="V8" t="n">
-        <v>2128.455232864183</v>
+        <v>1371.794283640691</v>
       </c>
       <c r="W8" t="n">
-        <v>2128.455232864183</v>
+        <v>1000.795248608978</v>
       </c>
       <c r="X8" t="n">
-        <v>2128.455232864183</v>
+        <v>611.3426435420353</v>
       </c>
       <c r="Y8" t="n">
-        <v>2128.455232864183</v>
+        <v>214.8519344626364</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>847.3192010143625</v>
+        <v>847.3192010143626</v>
       </c>
       <c r="C9" t="n">
-        <v>696.6649705744547</v>
+        <v>696.6649705744549</v>
       </c>
       <c r="D9" t="n">
-        <v>566.5760031959351</v>
+        <v>566.5760031959352</v>
       </c>
       <c r="E9" t="n">
-        <v>430.1295123068228</v>
+        <v>430.1295123068229</v>
       </c>
       <c r="F9" t="n">
         <v>305.6977061899547</v>
       </c>
       <c r="G9" t="n">
-        <v>185.6378882618191</v>
+        <v>185.6378882618192</v>
       </c>
       <c r="H9" t="n">
-        <v>97.34047186242003</v>
+        <v>97.34047186242012</v>
       </c>
       <c r="I9" t="n">
-        <v>47.95321787433162</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="J9" t="n">
-        <v>47.95321787433162</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="K9" t="n">
         <v>367.6923639365581</v>
@@ -4892,19 +4892,19 @@
         <v>367.6923639365581</v>
       </c>
       <c r="M9" t="n">
-        <v>616.3609387928443</v>
+        <v>961.1134351314129</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.782009987698</v>
+        <v>1444.147101542589</v>
       </c>
       <c r="O9" t="n">
-        <v>1726.302292578679</v>
+        <v>1960.66738413357</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.923661295077</v>
+        <v>2366.288752849968</v>
       </c>
       <c r="Q9" t="n">
-        <v>2366.288752849967</v>
+        <v>2366.288752849968</v>
       </c>
       <c r="R9" t="n">
         <v>2342.371709748032</v>
@@ -4928,7 +4928,7 @@
         <v>1178.429752379817</v>
       </c>
       <c r="Y9" t="n">
-        <v>999.1155354553239</v>
+        <v>999.115535455324</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="C10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="D10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="E10" t="n">
-        <v>366.9044644496578</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="F10" t="n">
-        <v>366.9044644496578</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="G10" t="n">
-        <v>366.9044644496578</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="H10" t="n">
-        <v>211.4259134111518</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="I10" t="n">
-        <v>78.33148804822967</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="J10" t="n">
-        <v>47.95321787433162</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="K10" t="n">
-        <v>129.7882589842735</v>
+        <v>129.7882589842736</v>
       </c>
       <c r="L10" t="n">
         <v>293.9158988580733</v>
@@ -4989,25 +4989,25 @@
         <v>949.400240415884</v>
       </c>
       <c r="S10" t="n">
-        <v>788.442621769631</v>
+        <v>835.0904066433725</v>
       </c>
       <c r="T10" t="n">
-        <v>788.442621769631</v>
+        <v>599.3713548116066</v>
       </c>
       <c r="U10" t="n">
-        <v>788.442621769631</v>
+        <v>313.9325630535075</v>
       </c>
       <c r="V10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="W10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="X10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.4632765904553</v>
+        <v>47.9532178743317</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.815439560371</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.58061935049</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2945.144336927563</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2669.085983183039</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="X11" t="n">
-        <v>2374.574059403285</v>
+        <v>2203.33349021336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2073.024031611074</v>
+        <v>1901.783462421149</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D13" t="n">
         <v>357.1274984979809</v>
@@ -5208,7 +5208,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5220,13 +5220,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5238,13 +5238,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5314,16 +5314,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>3005.489809301069</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>2176.765939604926</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
         <v>568.1699486069232</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.8107415311669</v>
@@ -5436,16 +5436,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362509</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5457,13 +5457,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5475,13 +5475,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498593</v>
@@ -5503,25 +5503,25 @@
         <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
@@ -5533,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5542,22 +5542,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2234.856203156066</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072688</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229905</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222409</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960407</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343048</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N19" t="n">
-        <v>683.142663665514</v>
+        <v>804.5780233445269</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862349</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194236</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330096</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984011</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414175</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K20" t="n">
         <v>565.7512566404055</v>
@@ -5770,7 +5770,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5791,13 +5791,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840154</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072688</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446686</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184684</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567324</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879416</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296496</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194236</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330096</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984011</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5977,13 +5977,13 @@
         <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6016,22 +6016,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862349</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="26">
@@ -6253,22 +6253,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>3005.489809301069</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W26" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X26" t="n">
-        <v>2434.91953177679</v>
+        <v>2133.36950398458</v>
       </c>
       <c r="Y26" t="n">
         <v>2133.36950398458</v>
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C28" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445334</v>
       </c>
       <c r="G28" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311673</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798497</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
         <v>1368.802215879041</v>
@@ -6420,16 +6420,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X28" t="n">
         <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1391.743918024177</v>
+        <v>1697.297982448386</v>
       </c>
       <c r="C29" t="n">
-        <v>1093.509097814296</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D29" t="n">
-        <v>917.1264146715121</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E29" t="n">
-        <v>609.483571075245</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F29" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G29" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>580.3847592515303</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.156408878212</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N30" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D31" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E31" t="n">
         <v>296.5093676443718</v>
@@ -6612,7 +6612,7 @@
         <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
@@ -6621,7 +6621,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
@@ -6630,7 +6630,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852101</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592133</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975462</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6727,7 +6727,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
@@ -6736,7 +6736,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
         <v>2405.467337224691</v>
@@ -6745,7 +6745,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1862.189031132337</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P33" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291067</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L34" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M34" t="n">
-        <v>593.6560140511124</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N34" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O34" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P34" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803428</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6976,7 +6976,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7025,16 +7025,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>689.8907773307967</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446697</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7201,7 +7201,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7210,7 +7210,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.6987703122995</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222414</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960412</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343052</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655144</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072225</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838011</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1362.593595218209</v>
+        <v>1761.929898796206</v>
       </c>
       <c r="C41" t="n">
-        <v>1042.890204511579</v>
+        <v>1442.226508089577</v>
       </c>
       <c r="D41" t="n">
-        <v>730.9211865186874</v>
+        <v>1130.257490096684</v>
       </c>
       <c r="E41" t="n">
-        <v>401.8097724256721</v>
+        <v>1060.708045865419</v>
       </c>
       <c r="F41" t="n">
-        <v>401.8097724256721</v>
+        <v>717.2857181858365</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>377.5950734642798</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>126.9841338212106</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="T41" t="n">
-        <v>3077.057564226901</v>
+        <v>2862.886449287124</v>
       </c>
       <c r="U41" t="n">
-        <v>2894.77694545194</v>
+        <v>2680.605830512163</v>
       </c>
       <c r="V41" t="n">
-        <v>2626.142246945899</v>
+        <v>2411.971132006121</v>
       </c>
       <c r="W41" t="n">
-        <v>2328.615322704627</v>
+        <v>2411.971132006121</v>
       </c>
       <c r="X41" t="n">
-        <v>2012.634828428124</v>
+        <v>2411.971132006121</v>
       </c>
       <c r="Y41" t="n">
-        <v>1689.616230139165</v>
+        <v>2088.952533717163</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>491.0347066047635</v>
+        <v>643.3643604323377</v>
       </c>
       <c r="C43" t="n">
-        <v>491.0347066047635</v>
+        <v>546.6313532887671</v>
       </c>
       <c r="D43" t="n">
-        <v>464.4703509817215</v>
+        <v>464.4703509817219</v>
       </c>
       <c r="E43" t="n">
-        <v>382.3836496313642</v>
+        <v>382.3836496313646</v>
       </c>
       <c r="F43" t="n">
-        <v>298.5298256347774</v>
+        <v>298.5298256347777</v>
       </c>
       <c r="G43" t="n">
-        <v>203.7478825246632</v>
+        <v>203.7478825246634</v>
       </c>
       <c r="H43" t="n">
-        <v>121.7414422765974</v>
+        <v>121.7414422765975</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>104.3554008923885</v>
+        <v>104.3554008923884</v>
       </c>
       <c r="K43" t="n">
-        <v>258.2004577880409</v>
+        <v>258.2004577880407</v>
       </c>
       <c r="L43" t="n">
-        <v>494.3381134475511</v>
+        <v>494.3381134475509</v>
       </c>
       <c r="M43" t="n">
-        <v>752.6397075715256</v>
+        <v>752.6397075715254</v>
       </c>
       <c r="N43" t="n">
         <v>1007.839357388445</v>
       </c>
       <c r="O43" t="n">
-        <v>1242.554140215864</v>
+        <v>1242.554140215863</v>
       </c>
       <c r="P43" t="n">
-        <v>1434.440321778153</v>
+        <v>1434.440321778152</v>
       </c>
       <c r="Q43" t="n">
         <v>1509.872533933914</v>
@@ -7596,25 +7596,25 @@
         <v>1459.443655356931</v>
       </c>
       <c r="S43" t="n">
-        <v>1330.099682329921</v>
+        <v>1459.443655356931</v>
       </c>
       <c r="T43" t="n">
-        <v>1167.852741288596</v>
+        <v>1337.533452005817</v>
       </c>
       <c r="U43" t="n">
-        <v>955.8860603209367</v>
+        <v>1125.566771038158</v>
       </c>
       <c r="V43" t="n">
-        <v>763.3788259322012</v>
+        <v>1125.566771038158</v>
       </c>
       <c r="W43" t="n">
-        <v>763.3788259322012</v>
+        <v>915.7084797597755</v>
       </c>
       <c r="X43" t="n">
-        <v>602.7706145056245</v>
+        <v>755.1002683331988</v>
       </c>
       <c r="Y43" t="n">
-        <v>602.7706145056245</v>
+        <v>755.1002683331988</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1706.015922897791</v>
+        <v>1956.62686254086</v>
       </c>
       <c r="C44" t="n">
-        <v>1386.312532191162</v>
+        <v>1636.923471834231</v>
       </c>
       <c r="D44" t="n">
-        <v>1074.34351419827</v>
+        <v>1324.954453841339</v>
       </c>
       <c r="E44" t="n">
-        <v>745.2321001052542</v>
+        <v>995.8430397483235</v>
       </c>
       <c r="F44" t="n">
-        <v>401.8097724256721</v>
+        <v>652.4207120687414</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>312.7300673471847</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3050.545309019323</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3050.545309019323</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2868.264690244362</v>
       </c>
       <c r="V44" t="n">
-        <v>2969.564574625482</v>
+        <v>2599.62999173832</v>
       </c>
       <c r="W44" t="n">
-        <v>2672.037650384209</v>
+        <v>2599.62999173832</v>
       </c>
       <c r="X44" t="n">
-        <v>2356.057156107706</v>
+        <v>2283.649497461817</v>
       </c>
       <c r="Y44" t="n">
-        <v>2033.038557818747</v>
+        <v>2283.649497461817</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7730,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>643.3643604323372</v>
+        <v>501.6553445094984</v>
       </c>
       <c r="C46" t="n">
-        <v>546.6313532887666</v>
+        <v>404.9223373659278</v>
       </c>
       <c r="D46" t="n">
-        <v>464.4703509817215</v>
+        <v>322.7613350588827</v>
       </c>
       <c r="E46" t="n">
-        <v>382.3836496313643</v>
+        <v>322.7613350588827</v>
       </c>
       <c r="F46" t="n">
-        <v>298.5298256347775</v>
+        <v>238.9075110622958</v>
       </c>
       <c r="G46" t="n">
-        <v>203.7478825246632</v>
+        <v>144.1255679521814</v>
       </c>
       <c r="H46" t="n">
-        <v>121.7414422765974</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3554008923885</v>
+        <v>104.3554008923884</v>
       </c>
       <c r="K46" t="n">
-        <v>258.2004577880408</v>
+        <v>258.2004577880407</v>
       </c>
       <c r="L46" t="n">
-        <v>494.3381134475511</v>
+        <v>494.3381134475509</v>
       </c>
       <c r="M46" t="n">
-        <v>752.6397075715256</v>
+        <v>752.6397075715254</v>
       </c>
       <c r="N46" t="n">
         <v>1007.839357388445</v>
       </c>
       <c r="O46" t="n">
-        <v>1242.554140215864</v>
+        <v>1242.554140215863</v>
       </c>
       <c r="P46" t="n">
-        <v>1434.440321778153</v>
+        <v>1434.440321778152</v>
       </c>
       <c r="Q46" t="n">
         <v>1509.872533933914</v>
@@ -7833,25 +7833,25 @@
         <v>1459.443655356931</v>
       </c>
       <c r="S46" t="n">
-        <v>1459.443655356931</v>
+        <v>1330.09968232992</v>
       </c>
       <c r="T46" t="n">
-        <v>1459.443655356931</v>
+        <v>1167.852741288595</v>
       </c>
       <c r="U46" t="n">
-        <v>1247.476974389272</v>
+        <v>1116.146648618588</v>
       </c>
       <c r="V46" t="n">
-        <v>1247.476974389272</v>
+        <v>923.6394142298528</v>
       </c>
       <c r="W46" t="n">
-        <v>1065.348430152691</v>
+        <v>923.6394142298528</v>
       </c>
       <c r="X46" t="n">
-        <v>904.7402187261148</v>
+        <v>763.0312028032761</v>
       </c>
       <c r="Y46" t="n">
-        <v>755.1002683331983</v>
+        <v>613.3912524103596</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M2" t="n">
-        <v>466.7144144634705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>197.8603359779025</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8221,16 +8221,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>509.3167990170189</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>558.845202393504</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8294,10 +8294,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8306,16 +8306,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>153.2772452666831</v>
       </c>
       <c r="Q6" t="n">
-        <v>239.7287152499919</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,13 +8455,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7316305663787</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>352.3810538234453</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,10 +8540,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>343.5675006920252</v>
+        <v>691.8023454784581</v>
       </c>
       <c r="N9" t="n">
-        <v>684.7873362833119</v>
+        <v>573.2849072088901</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0989755892052</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9248,22 +9248,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>238.0573041899393</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -9491,10 +9491,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>136.3731801151487</v>
+        <v>543.8532815002535</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9728,16 +9728,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9971,10 +9971,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,16 +10190,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10211,7 +10211,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10433,7 +10433,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10442,13 +10442,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>407.1386544003163</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10673,7 +10673,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N39" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>571.8744206036794</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11378,19 +11378,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>658.1108392979579</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.74201764977056</v>
+        <v>272.2326524119391</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -23554,7 +23554,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>145.2325565835403</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.1950278476831</v>
       </c>
     </row>
     <row r="15">
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.117417352565099e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>204.0334238405866</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>172.1747538050082</v>
       </c>
       <c r="D29" t="n">
-        <v>112.976586709826</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>256.9663501631322</v>
       </c>
       <c r="F41" t="n">
-        <v>339.9881044027862</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>248.1048302466384</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>64.21635605592398</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.1110298258241</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>119.9183739645555</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>294.5516549988597</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>312.820689333738</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>95.76567707213484</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.04068021716299</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>128.0505332967404</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.93337031330941</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>190.5821620448483</v>
       </c>
       <c r="W43" t="n">
-        <v>207.7597083655983</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>148.1435508889872</v>
+        <v>148.1435508889873</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>248.1048302466384</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>64.216356055924</v>
+        <v>64.21635605592408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.11102982582412</v>
+        <v>37.25406440123518</v>
       </c>
       <c r="T44" t="n">
-        <v>148.5282067336417</v>
+        <v>148.5282067336418</v>
       </c>
       <c r="U44" t="n">
-        <v>180.4578125872115</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>130.9204590464894</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>294.5516549988597</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>319.7884123060692</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.26583433685377</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>59.02609142675715</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>128.0505332967403</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.6244716309124</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>158.6579824146762</v>
       </c>
       <c r="V46" t="n">
-        <v>190.5821620448482</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.45244957138328</v>
+        <v>207.7597083655984</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180385</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>559029.7520894058</v>
+        <v>559029.7520894057</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>559029.7520894058</v>
+        <v>559029.7520894055</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180386</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>496283.899158248</v>
+        <v>496283.8991582477</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640917</v>
+        <v>703295.494564091</v>
       </c>
       <c r="C2" t="n">
+        <v>703295.4945640919</v>
+      </c>
+      <c r="D2" t="n">
         <v>703295.4945640913</v>
       </c>
-      <c r="D2" t="n">
-        <v>703295.4945640911</v>
-      </c>
       <c r="E2" t="n">
-        <v>660956.8784646296</v>
+        <v>660956.8784646298</v>
       </c>
       <c r="F2" t="n">
         <v>660956.8784646295</v>
       </c>
       <c r="G2" t="n">
+        <v>703295.4945640919</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703295.4945640916</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703295.4945640909</v>
+      </c>
+      <c r="J2" t="n">
+        <v>660956.8784646285</v>
+      </c>
+      <c r="K2" t="n">
+        <v>660956.8784646293</v>
+      </c>
+      <c r="L2" t="n">
         <v>703295.4945640907</v>
       </c>
-      <c r="H2" t="n">
-        <v>703295.4945640912</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703295.4945640907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>660956.8784646295</v>
-      </c>
-      <c r="K2" t="n">
-        <v>660956.8784646296</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703295.4945640921</v>
-      </c>
       <c r="M2" t="n">
-        <v>703295.4945640906</v>
+        <v>703295.494564091</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.494564091</v>
       </c>
       <c r="O2" t="n">
-        <v>624357.163457151</v>
+        <v>624357.1634571515</v>
       </c>
       <c r="P2" t="n">
-        <v>624357.1634571513</v>
+        <v>624357.1634571517</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2486.002070764268</v>
+        <v>2486.002070764559</v>
       </c>
       <c r="E3" t="n">
-        <v>128063.3823939184</v>
+        <v>128063.3823939181</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301432</v>
+        <v>29094.95587301426</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>60215.42360931237</v>
+        <v>60215.42360931246</v>
       </c>
       <c r="M3" t="n">
-        <v>44127.51741526835</v>
+        <v>44127.51741526808</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>154346.0890704043</v>
       </c>
       <c r="D4" t="n">
-        <v>152938.7937303628</v>
+        <v>152938.7937303626</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183776</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183774</v>
+        <v>97239.09137183773</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
-        <v>97239.09137183765</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="K4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="L4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
-        <v>75761.06898230787</v>
+        <v>75761.06898230778</v>
       </c>
       <c r="P4" t="n">
-        <v>75761.06898230786</v>
+        <v>75761.06898230778</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>70072.04558449204</v>
+        <v>70072.04558449209</v>
       </c>
       <c r="E5" t="n">
+        <v>55112.2895089091</v>
+      </c>
+      <c r="F5" t="n">
+        <v>55112.2895089091</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="I5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="J5" t="n">
         <v>55112.28950890911</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>55112.28950890911</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551966</v>
-      </c>
-      <c r="J5" t="n">
-        <v>55112.2895089091</v>
-      </c>
-      <c r="K5" t="n">
-        <v>55112.2895089091</v>
-      </c>
-      <c r="L5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53325.4966683489</v>
+        <v>53325.49666834889</v>
       </c>
       <c r="P5" t="n">
-        <v>53325.4966683489</v>
+        <v>53325.49666834889</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281168.1422247692</v>
+        <v>281168.1422247685</v>
       </c>
       <c r="C6" t="n">
-        <v>479363.9482165138</v>
+        <v>479363.9482165144</v>
       </c>
       <c r="D6" t="n">
-        <v>477798.653178472</v>
+        <v>477798.6531784721</v>
       </c>
       <c r="E6" t="n">
-        <v>380542.1151899643</v>
+        <v>380433.5546358636</v>
       </c>
       <c r="F6" t="n">
-        <v>508605.4975838827</v>
+        <v>508496.9370297815</v>
       </c>
       <c r="G6" t="n">
-        <v>494187.3573602372</v>
+        <v>494187.3573602384</v>
       </c>
       <c r="H6" t="n">
-        <v>523282.3132332519</v>
+        <v>523282.3132332523</v>
       </c>
       <c r="I6" t="n">
-        <v>523282.3132332515</v>
+        <v>523282.3132332516</v>
       </c>
       <c r="J6" t="n">
-        <v>307767.9995118405</v>
+        <v>307659.438957738</v>
       </c>
       <c r="K6" t="n">
-        <v>508605.4975838829</v>
+        <v>508496.9370297812</v>
       </c>
       <c r="L6" t="n">
-        <v>463066.8896239404</v>
+        <v>463066.8896239389</v>
       </c>
       <c r="M6" t="n">
-        <v>479154.795817983</v>
+        <v>479154.7958179836</v>
       </c>
       <c r="N6" t="n">
-        <v>523282.3132332515</v>
+        <v>523282.3132332516</v>
       </c>
       <c r="O6" t="n">
-        <v>495270.5978064943</v>
+        <v>495068.1918292975</v>
       </c>
       <c r="P6" t="n">
-        <v>495270.5978064946</v>
+        <v>495068.1918292977</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="G2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="H2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="I2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="J2" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="H2" t="n">
-        <v>130.3599693155845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93.99127447431644</v>
-      </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L2" t="n">
-        <v>130.3599693155845</v>
-      </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="P2" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
     </row>
     <row r="3">
@@ -26795,7 +26795,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>599.4152234291453</v>
+        <v>599.4152234291462</v>
       </c>
       <c r="E4" t="n">
         <v>776.4890963014441</v>
@@ -26804,10 +26804,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126782</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,19 +26931,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304864</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253591</v>
+        <v>72.73738968253572</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.003097159850199</v>
+        <v>8.003097159851137</v>
       </c>
       <c r="E4" t="n">
-        <v>177.0738728722988</v>
+        <v>177.0738728722979</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159850199</v>
+        <v>8.003097159851137</v>
       </c>
       <c r="M4" t="n">
-        <v>177.0738728722988</v>
+        <v>177.0738728722979</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126782</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304864</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159850199</v>
+        <v>8.003097159851137</v>
       </c>
       <c r="M4" t="n">
-        <v>177.0738728722988</v>
+        <v>177.0738728722979</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232.7181955277861</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.6695051694352</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27447,7 +27447,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>72.06282472580641</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>57.95669902663425</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27599,7 +27599,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>356.2499657818646</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>376.649922698587</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17.46037932646928</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27830,10 +27830,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>131.803927412103</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>253.0166908740601</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>189.1430021115665</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28028,13 +28028,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>41.43988051948568</v>
+        <v>87.62118754448971</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431596</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431619</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668788</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>28.01250026485405</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28766,31 +28766,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28958,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>35.71049010668693</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2979821082792</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29195,31 +29195,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29234,37 +29234,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>28.01250026485403</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="33">
@@ -29906,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29951,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.71049010668682</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>28.01250026485357</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30404,7 +30404,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668834</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>28.01250026485258</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30425,10 +30425,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="C41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="D41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="E41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="F41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="G41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="H41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="T41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="U41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="V41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="W41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="X41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="C43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="D43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="E43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="F43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="G43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="H43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="I43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="J43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="K43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="L43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="M43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="N43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="O43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="P43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="R43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="S43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="T43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="U43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="V43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="W43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="X43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.73738968253583</v>
+        <v>72.73738968253573</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="C44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="D44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="E44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="F44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="G44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="H44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="T44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="U44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="V44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="W44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="X44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="C46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="D46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="E46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="F46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="G46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="H46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="I46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="J46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="K46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="L46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="M46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="N46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="O46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="P46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="R46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="S46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="T46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="U46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="V46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="W46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="X46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.73738968253582</v>
+        <v>72.73738968253573</v>
       </c>
     </row>
   </sheetData>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M2" t="n">
-        <v>316.9893628657432</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>110.7769711585879</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34941,16 +34941,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>356.0686292865271</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>409.2813649694075</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35026,16 +35026,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>66.19388044736839</v>
       </c>
       <c r="Q6" t="n">
-        <v>148.7405620940779</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>346.483460835887</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>202.0796065825201</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>251.1803786427134</v>
+        <v>599.4152234291462</v>
       </c>
       <c r="N9" t="n">
-        <v>599.4152234291453</v>
+        <v>487.9127943547235</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35585,10 +35585,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>22.71185353989332</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215689</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963362</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
@@ -35822,10 +35822,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>147.0691510340253</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528808</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36053,7 +36053,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398128</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36062,10 +36062,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>51.00106726098203</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934969</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36299,10 +36299,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184317</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36448,16 +36448,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36530,16 +36530,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019329</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36691,10 +36691,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37007,10 +37007,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37162,13 +37162,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434254</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37247,7 +37247,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.1672541168393</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529095</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37478,7 +37478,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019324</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37487,7 +37487,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529267</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37709,7 +37709,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176445</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37721,10 +37721,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37867,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>486.5023077495127</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.66290221037676</v>
+        <v>42.66290221037666</v>
       </c>
       <c r="K43" t="n">
-        <v>155.3990473693458</v>
+        <v>155.3990473693457</v>
       </c>
       <c r="L43" t="n">
-        <v>238.5228845045558</v>
+        <v>238.5228845045557</v>
       </c>
       <c r="M43" t="n">
-        <v>260.9107011353278</v>
+        <v>260.9107011353277</v>
       </c>
       <c r="N43" t="n">
-        <v>257.7774240574946</v>
+        <v>257.7774240574945</v>
       </c>
       <c r="O43" t="n">
-        <v>237.0856392196147</v>
+        <v>237.0856392196146</v>
       </c>
       <c r="P43" t="n">
-        <v>193.824425820494</v>
+        <v>193.8244258204939</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.19415369268832</v>
+        <v>76.19415369268822</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>572.7387264437913</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.66290221037675</v>
+        <v>42.66290221037666</v>
       </c>
       <c r="K46" t="n">
-        <v>155.3990473693458</v>
+        <v>155.3990473693457</v>
       </c>
       <c r="L46" t="n">
-        <v>238.5228845045558</v>
+        <v>238.5228845045557</v>
       </c>
       <c r="M46" t="n">
-        <v>260.9107011353278</v>
+        <v>260.9107011353277</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7774240574946</v>
+        <v>257.7774240574945</v>
       </c>
       <c r="O46" t="n">
-        <v>237.0856392196147</v>
+        <v>237.0856392196146</v>
       </c>
       <c r="P46" t="n">
-        <v>193.824425820494</v>
+        <v>193.8244258204939</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.1941536926883</v>
+        <v>76.19415369268822</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
